--- a/TestCase Template.xlsx
+++ b/TestCase Template.xlsx
@@ -5,17 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\SkyDrive\CC CPAN DsgnPttrns SwTesting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ademir\Documents\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7455" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>To verify that clicking the Generate Coin button generates coins.</t>
   </si>
@@ -44,24 +41,6 @@
     <t>Jane Roe</t>
   </si>
   <si>
-    <t xml:space="preserve">Test </t>
-  </si>
-  <si>
-    <t xml:space="preserve">suite ID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">case ID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Related </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requirement </t>
-  </si>
-  <si>
     <t xml:space="preserve">Prerequisites </t>
   </si>
   <si>
@@ -71,9 +50,6 @@
     <t xml:space="preserve">Test Data </t>
   </si>
   <si>
-    <t xml:space="preserve">Expected </t>
-  </si>
-  <si>
     <t xml:space="preserve">Actual Result </t>
   </si>
   <si>
@@ -86,16 +62,7 @@
     <t xml:space="preserve">Created By </t>
   </si>
   <si>
-    <t xml:space="preserve">Date of </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creation </t>
-  </si>
-  <si>
     <t xml:space="preserve">Executed By </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Execution </t>
   </si>
   <si>
     <t xml:space="preserve">Environment </t>
@@ -500,156 +467,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -672,84 +489,84 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>2</v>
@@ -758,16 +575,16 @@
         <v>3</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
